--- a/Tablas/Conceptos.xlsx
+++ b/Tablas/Conceptos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Conceptos\Conceptos\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,9 +59,6 @@
     <t>ARBA</t>
   </si>
   <si>
-    <t>JEFATURA</t>
-  </si>
-  <si>
     <t>ECONOMIA</t>
   </si>
   <si>
@@ -87,13 +84,19 @@
   </si>
   <si>
     <t>dad</t>
+  </si>
+  <si>
+    <t>MINISTERIO DE AMBIENTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +112,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="63"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,15 +142,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,7 +452,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,50 +494,50 @@
         <v>10430</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
